--- a/ClosedXML.Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -365,7 +365,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B2"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="B2" sqref="B2"/>
@@ -410,7 +410,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B2"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="B2" sqref="B2 D2:E2 C3 D4:E5"/>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,7 +361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -6,9 +6,9 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Set Active Cell" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Select Rows and Columns" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Select Misc" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Set Active Cell" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Select Rows and Columns" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Select Misc" sheetId="3" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
